--- a/src/main/resources/Dictionary.xlsx
+++ b/src/main/resources/Dictionary.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GetPermissionsActivity" sheetId="1" r:id="rId1"/>
+    <sheet name="MainActivity" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>only_True</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,7 +67,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KeyWrod</t>
+    <t>userHome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageButton;resource-id="com.android.benlailife.activity:id/img_tab_center"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyWord</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,20 +435,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -562,4 +573,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="79.375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>